--- a/LAXMI CABS - CAB ALLOCATION_Coordinator.xlsx
+++ b/LAXMI CABS - CAB ALLOCATION_Coordinator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/hemalatha_jayabalan_fisglobal_com/Documents/e3024537_Backup/D_Drive/Hema's/SVT/Laxmi_Mar14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_96BB9AD2950CDB967C60B8C2EB74D56FC75E0204" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04EAB416-636F-4CC5-872F-71FE5A62CFEC}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="11_96BB9AD2950CDB967C60B8C2EB74D56FC75E0204" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647D0754-458F-456F-9E39-DE9DCF9F709B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,30 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$52</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="336">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -928,6 +939,138 @@
   </si>
   <si>
     <t>PY 05 X 9164</t>
+  </si>
+  <si>
+    <t>Selvam</t>
+  </si>
+  <si>
+    <t>TN 20 CM 2235</t>
+  </si>
+  <si>
+    <t>Vairavan</t>
+  </si>
+  <si>
+    <t>8610008188</t>
+  </si>
+  <si>
+    <t>TN 02 BS 0597</t>
+  </si>
+  <si>
+    <t>TN 02 BV 3313</t>
+  </si>
+  <si>
+    <t>Natraj</t>
+  </si>
+  <si>
+    <t>9677013403</t>
+  </si>
+  <si>
+    <t>Srinivasan</t>
+  </si>
+  <si>
+    <t>8608213791</t>
+  </si>
+  <si>
+    <t>TN 07 CM 6370</t>
+  </si>
+  <si>
+    <t>Siva</t>
+  </si>
+  <si>
+    <t>9843261393</t>
+  </si>
+  <si>
+    <t>TN 02 BJ 2155</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>9840089226</t>
+  </si>
+  <si>
+    <t>TN 09 CS 3376</t>
+  </si>
+  <si>
+    <t>TN 57 BM 8118</t>
+  </si>
+  <si>
+    <t>Sakthi</t>
+  </si>
+  <si>
+    <t>9940257256</t>
+  </si>
+  <si>
+    <t>Taj Connemara</t>
+  </si>
+  <si>
+    <t>9444291083</t>
+  </si>
+  <si>
+    <t>Cancellation charges applicable for Mar 14</t>
+  </si>
+  <si>
+    <t>Paneerselvam</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Azeez</t>
+  </si>
+  <si>
+    <t>Naina</t>
+  </si>
+  <si>
+    <t>TN 85 E 0310</t>
+  </si>
+  <si>
+    <t>8870911713</t>
+  </si>
+  <si>
+    <t>TN 19 AB 6971</t>
+  </si>
+  <si>
+    <t>9952960447</t>
+  </si>
+  <si>
+    <t>TN 10 AY 4960</t>
+  </si>
+  <si>
+    <t>8637414560</t>
+  </si>
+  <si>
+    <t>TN 10 BB 9924</t>
+  </si>
+  <si>
+    <t>9841243131</t>
+  </si>
+  <si>
+    <t>TN 76 AX 0610</t>
+  </si>
+  <si>
+    <t>7358259005</t>
+  </si>
+  <si>
+    <t>TN 10 BF 9840</t>
+  </si>
+  <si>
+    <t>Vinoth Kumar</t>
+  </si>
+  <si>
+    <t>9092124962</t>
+  </si>
+  <si>
+    <t>Kannan</t>
+  </si>
+  <si>
+    <t>9500175803</t>
+  </si>
+  <si>
+    <t>TN 18 AX 8784</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1080,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,6 +1114,29 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1023,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1067,12 +1233,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,10 +1573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y52"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1396,10 +1602,11 @@
     <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1683,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>12</v>
       </c>
@@ -1543,17 +1750,17 @@
       <c r="V2" s="6">
         <v>1910</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="17" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -1620,17 +1827,17 @@
       <c r="V3" s="6">
         <v>2020</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="17" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>50</v>
       </c>
@@ -1697,94 +1904,94 @@
       <c r="V4" s="6">
         <v>620</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Y4" s="17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:26" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="31">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="31">
         <v>140455</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="31">
         <v>7997978704</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="20">
         <v>44999</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="30">
         <v>1435</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="30">
         <v>1655</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="P5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="20">
         <v>45003</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="5" t="s">
+      <c r="R5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="30">
         <v>1345</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="30">
         <v>1845</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Y5" s="35" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>35</v>
       </c>
@@ -1851,94 +2058,97 @@
       <c r="V6" s="6">
         <v>1800</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="Y6" s="18" t="s">
+      <c r="Y6" s="17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
         <v>46</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="31">
         <v>139674</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="31">
         <v>8939837933</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="20">
         <v>44999</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="30">
         <v>1415</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="30">
         <v>1650</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="P7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="20">
         <v>45003</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="R7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="30">
         <v>1745</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="30">
         <v>2020</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="Y7" s="18" t="s">
+      <c r="Y7" s="35" t="s">
         <v>290</v>
       </c>
+      <c r="Z7" t="s">
+        <v>314</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>51</v>
       </c>
@@ -2005,17 +2215,17 @@
       <c r="V8" s="6">
         <v>815</v>
       </c>
-      <c r="W8" s="17" t="s">
+      <c r="W8" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="Y8" s="18" t="s">
+      <c r="Y8" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2082,11 +2292,11 @@
       <c r="V9" s="6">
         <v>2220</v>
       </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>17</v>
       </c>
@@ -2153,11 +2363,11 @@
       <c r="V10" s="6">
         <v>2030</v>
       </c>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>19</v>
       </c>
@@ -2188,11 +2398,15 @@
       <c r="J11" s="5">
         <v>45000</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6">
+        <v>1000</v>
+      </c>
       <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2214,11 +2428,17 @@
       <c r="V11" s="6">
         <v>2020</v>
       </c>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
+      <c r="W11" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y11" s="17" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>21</v>
       </c>
@@ -2285,82 +2505,82 @@
       <c r="V12" s="6">
         <v>2020</v>
       </c>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="13" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="31">
         <v>101683</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="31">
         <v>8297561411</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="I13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="20">
         <v>45000</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="L13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="30">
         <v>805</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="30">
         <v>930</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="P13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="20">
         <v>45002</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="5" t="s">
+      <c r="R13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="30">
         <v>1750</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="30">
         <v>1900</v>
       </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>36</v>
       </c>
@@ -2427,11 +2647,17 @@
       <c r="V14" s="6">
         <v>1800</v>
       </c>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
+      <c r="W14" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y14" s="17" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>38</v>
       </c>
@@ -2498,11 +2724,17 @@
       <c r="V15" s="6">
         <v>1020</v>
       </c>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
+      <c r="W15" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>295</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>39</v>
       </c>
@@ -2569,11 +2801,17 @@
       <c r="V16" s="6">
         <v>2020</v>
       </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
+      <c r="W16" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>321</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45</v>
       </c>
@@ -2636,11 +2874,11 @@
       <c r="V17" s="6">
         <v>2300</v>
       </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>49</v>
       </c>
@@ -2707,82 +2945,88 @@
       <c r="V18" s="6">
         <v>2010</v>
       </c>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
+      <c r="W18" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y18" s="17" t="s">
+        <v>325</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="31">
         <v>130824</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="31">
         <v>7824052653</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="I19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="20">
         <v>45000</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="L19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="30">
         <v>815</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="30">
         <v>1100</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="5">
+      <c r="P19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="20">
         <v>45003</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="5" t="s">
+      <c r="R19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="30">
         <v>1945</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="30">
         <v>2205</v>
       </c>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="35"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -2849,11 +3093,17 @@
       <c r="V20" s="6">
         <v>1855</v>
       </c>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
+      <c r="W20" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y20" s="17" t="s">
+        <v>313</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>10</v>
       </c>
@@ -2863,7 +3113,7 @@
       <c r="C21" s="3">
         <v>130796</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="3">
@@ -2920,82 +3170,88 @@
       <c r="V21" s="6">
         <v>2220</v>
       </c>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
+      <c r="W21" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y21" s="17" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="22" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="31">
         <v>114823</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="31">
         <v>8939837924</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="20">
         <v>45000</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="L22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="30">
         <v>1805</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="30">
         <v>1955</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="5">
+      <c r="P22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="20">
         <v>45003</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="5" t="s">
+      <c r="R22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="30">
         <v>940</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="30">
         <v>1145</v>
       </c>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>24</v>
       </c>
@@ -3062,11 +3318,17 @@
       <c r="V23" s="6">
         <v>1625</v>
       </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
+      <c r="W23" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y23" s="17" t="s">
+        <v>329</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>25</v>
       </c>
@@ -3136,8 +3398,11 @@
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="27"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>27</v>
       </c>
@@ -3208,7 +3473,7 @@
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>30</v>
       </c>
@@ -3275,11 +3540,17 @@
       <c r="V26" s="6">
         <v>2105</v>
       </c>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
+      <c r="W26" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y26" s="17" t="s">
+        <v>327</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>31</v>
       </c>
@@ -3346,11 +3617,17 @@
       <c r="V27" s="14">
         <v>1040</v>
       </c>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
+      <c r="W27" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y27" s="17" t="s">
+        <v>332</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>34</v>
       </c>
@@ -3417,11 +3694,17 @@
       <c r="V28" s="6">
         <v>1740</v>
       </c>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
+      <c r="W28" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y28" s="17" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>37</v>
       </c>
@@ -3492,78 +3775,78 @@
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
     </row>
-    <row r="30" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="30" spans="1:28" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="31">
         <v>40</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="31">
         <v>13764</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="31">
         <v>8884424312</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="I30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="20">
         <v>45000</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="9" t="s">
+      <c r="L30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="30">
         <v>1310</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="30">
         <v>1735</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="5">
+      <c r="P30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="20">
         <v>45003</v>
       </c>
-      <c r="R30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S30" s="5" t="s">
+      <c r="R30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="T30" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="30">
         <v>515</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="30">
         <v>1255</v>
       </c>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>41</v>
       </c>
@@ -3630,11 +3913,17 @@
       <c r="V31" s="6">
         <v>2230</v>
       </c>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
+      <c r="W31" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="X31" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y31" s="17" t="s">
+        <v>334</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>43</v>
       </c>
@@ -3847,76 +4136,76 @@
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
     </row>
-    <row r="35" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+    <row r="35" spans="1:25" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="31">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="31">
         <v>138949</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="31">
         <v>7034017746</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="I35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="20">
         <v>45000</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="37">
         <v>2120</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="5">
+      <c r="P35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="20">
         <v>45004</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="S35" s="9" t="s">
+      <c r="S35" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T35" s="9" t="s">
+      <c r="T35" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="37">
         <v>800</v>
       </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -3985,9 +4274,15 @@
       <c r="V36" s="6">
         <v>1430</v>
       </c>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
+      <c r="W36" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y36" s="17" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4056,11 +4351,17 @@
       <c r="V37" s="6">
         <v>2205</v>
       </c>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
+      <c r="W37" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="X37" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>11</v>
       </c>
@@ -4131,7 +4432,7 @@
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -4198,82 +4499,82 @@
       <c r="V39" s="6">
         <v>1900</v>
       </c>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="40" spans="1:25" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18">
         <v>3</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="18">
         <v>130685</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="18">
         <v>7824052537</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="I40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="21">
         <v>45001</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="L40" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="24">
         <v>1710</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="24">
         <v>1930</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="5">
+      <c r="P40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="21">
         <v>45003</v>
       </c>
-      <c r="R40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S40" s="5" t="s">
+      <c r="R40" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="T40" s="9" t="s">
+      <c r="T40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="24">
         <v>1945</v>
       </c>
-      <c r="V40" s="6">
+      <c r="V40" s="24">
         <v>2205</v>
       </c>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -4340,82 +4641,82 @@
       <c r="V41" s="13">
         <v>645</v>
       </c>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+    <row r="42" spans="1:25" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="18">
         <v>9</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="18">
         <v>138775</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="18">
         <v>8884533443</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="5">
+      <c r="I42" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="21">
         <v>45001</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="24">
         <v>1935</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="24">
         <v>2100</v>
       </c>
-      <c r="P42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="5">
+      <c r="P42" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="21">
         <v>45003</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="S42" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="T42" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="24">
         <v>1750</v>
       </c>
-      <c r="V42" s="6">
+      <c r="V42" s="24">
         <v>1900</v>
       </c>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>13</v>
       </c>
@@ -4482,11 +4783,11 @@
       <c r="V43" s="6">
         <v>2105</v>
       </c>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>14</v>
       </c>
@@ -4553,11 +4854,11 @@
       <c r="V44" s="6">
         <v>1900</v>
       </c>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>15</v>
       </c>
@@ -4624,11 +4925,11 @@
       <c r="V45" s="6">
         <v>2100</v>
       </c>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
     </row>
-    <row r="46" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>16</v>
       </c>
@@ -4695,11 +4996,11 @@
       <c r="V46" s="6">
         <v>2125</v>
       </c>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>23</v>
       </c>
@@ -4766,11 +5067,11 @@
       <c r="V47" s="6">
         <v>1625</v>
       </c>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="16"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>48</v>
       </c>
@@ -4837,11 +5138,11 @@
       <c r="V48" s="6">
         <v>1720</v>
       </c>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -4908,11 +5209,11 @@
       <c r="V49" s="6">
         <v>820</v>
       </c>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>6</v>
       </c>
@@ -4979,11 +5280,11 @@
       <c r="V50" s="14">
         <v>1020</v>
       </c>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>22</v>
       </c>
@@ -5050,11 +5351,11 @@
       <c r="V51" s="6">
         <v>2110</v>
       </c>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>29</v>
       </c>
@@ -5121,11 +5422,19 @@
       <c r="V52" s="6">
         <v>910</v>
       </c>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB52" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters calendarType="gregorian">
+        <dateGroupItem year="2023" month="3" day="14" dateTimeGrouping="day"/>
+        <dateGroupItem year="2023" month="3" day="15" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y52">
     <sortCondition ref="J1:J52"/>
   </sortState>
